--- a/Code/Results/Cases/Case_6_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_14/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.30052155078686</v>
+        <v>24.44727161803648</v>
       </c>
       <c r="C2">
-        <v>13.21088835318185</v>
+        <v>13.51450604720748</v>
       </c>
       <c r="D2">
-        <v>4.768932060612436</v>
+        <v>4.38121908103041</v>
       </c>
       <c r="E2">
-        <v>6.610032726882252</v>
+        <v>6.738132518955204</v>
       </c>
       <c r="F2">
-        <v>36.96746067977511</v>
+        <v>18.91129915119957</v>
       </c>
       <c r="G2">
-        <v>2.082551186485717</v>
+        <v>2.074401175087282</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.359765368294009</v>
+        <v>7.340065174678968</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.26891864106332</v>
+        <v>14.89662837978433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.57260655453807</v>
+        <v>22.79550767265759</v>
       </c>
       <c r="C3">
-        <v>12.43764866488866</v>
+        <v>12.9493085239986</v>
       </c>
       <c r="D3">
-        <v>4.850895394694687</v>
+        <v>4.282214925676478</v>
       </c>
       <c r="E3">
-        <v>6.627257036595886</v>
+        <v>6.840890657284987</v>
       </c>
       <c r="F3">
-        <v>35.31173687052196</v>
+        <v>18.45906678293123</v>
       </c>
       <c r="G3">
-        <v>2.093999749846803</v>
+        <v>2.080711648881544</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.104199134985231</v>
+        <v>7.064955223889736</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.14745058080089</v>
+        <v>14.80728976276794</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45899016234156</v>
+        <v>21.7218021037166</v>
       </c>
       <c r="C4">
-        <v>11.94150546528896</v>
+        <v>12.59053542470266</v>
       </c>
       <c r="D4">
-        <v>4.903124173271404</v>
+        <v>4.220476359617583</v>
       </c>
       <c r="E4">
-        <v>6.641051896867388</v>
+        <v>6.909569788637575</v>
       </c>
       <c r="F4">
-        <v>34.29981247183066</v>
+        <v>18.20384658050628</v>
       </c>
       <c r="G4">
-        <v>2.101175834622171</v>
+        <v>2.084698255154618</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.948697648516301</v>
+        <v>6.894297419730663</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.47068761835935</v>
+        <v>14.77467754517231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.00701999187616</v>
+        <v>21.26918687758656</v>
       </c>
       <c r="C5">
-        <v>11.73393508016375</v>
+        <v>12.44152394528653</v>
       </c>
       <c r="D5">
-        <v>4.924867619175159</v>
+        <v>4.195099753338239</v>
       </c>
       <c r="E5">
-        <v>6.647449875056124</v>
+        <v>6.938906543718318</v>
       </c>
       <c r="F5">
-        <v>33.88895221755412</v>
+        <v>18.10547810672112</v>
       </c>
       <c r="G5">
-        <v>2.104140068497353</v>
+        <v>2.086351853714626</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.88574087596669</v>
+        <v>6.824409059750272</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.19802126206882</v>
+        <v>14.76673778455548</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.93499354763152</v>
+        <v>21.19311713083584</v>
       </c>
       <c r="C6">
-        <v>11.69914280182629</v>
+        <v>12.41661570347873</v>
       </c>
       <c r="D6">
-        <v>4.928505396087564</v>
+        <v>4.190873488724225</v>
       </c>
       <c r="E6">
-        <v>6.648558225449879</v>
+        <v>6.943857872148514</v>
       </c>
       <c r="F6">
-        <v>33.82083111438811</v>
+        <v>18.0894836473822</v>
       </c>
       <c r="G6">
-        <v>2.104634772913753</v>
+        <v>2.086628210176918</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.875313543938319</v>
+        <v>6.812786295084831</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.15293851778797</v>
+        <v>14.76573516241931</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.452743640862</v>
+        <v>21.71575913919744</v>
       </c>
       <c r="C7">
-        <v>11.93872791586294</v>
+        <v>12.58853696956077</v>
       </c>
       <c r="D7">
-        <v>4.903415573275922</v>
+        <v>4.220134974034439</v>
       </c>
       <c r="E7">
-        <v>6.641135080456845</v>
+        <v>6.909960039816802</v>
       </c>
       <c r="F7">
-        <v>34.29426488101302</v>
+        <v>18.20249716312463</v>
       </c>
       <c r="G7">
-        <v>2.101215645823636</v>
+        <v>2.084720437521823</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.947846847858063</v>
+        <v>6.893356142909581</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.46699749558787</v>
+        <v>14.7745491356076</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.71556249867285</v>
+        <v>23.89003148258701</v>
       </c>
       <c r="C8">
-        <v>12.94869498656332</v>
+        <v>13.32214176576335</v>
       </c>
       <c r="D8">
-        <v>4.796785543368196</v>
+        <v>4.347291756462733</v>
       </c>
       <c r="E8">
-        <v>6.615283021467894</v>
+        <v>6.772369772824584</v>
       </c>
       <c r="F8">
-        <v>36.39576420307245</v>
+        <v>18.7507115345887</v>
       </c>
       <c r="G8">
-        <v>2.086470140107954</v>
+        <v>2.076554332017355</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.271382432742556</v>
+        <v>7.245621229927942</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.87986022708239</v>
+        <v>14.86106636315395</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.74380808893928</v>
+        <v>27.68643555605206</v>
       </c>
       <c r="C9">
-        <v>14.76156522390837</v>
+        <v>14.66238955753192</v>
       </c>
       <c r="D9">
-        <v>4.603867030953904</v>
+        <v>4.588265721115647</v>
       </c>
       <c r="E9">
-        <v>6.591733300703464</v>
+        <v>6.549593981628836</v>
       </c>
       <c r="F9">
-        <v>40.54418451593595</v>
+        <v>20.00317991977383</v>
       </c>
       <c r="G9">
-        <v>2.058564718215756</v>
+        <v>2.061386812116739</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.9151598602931</v>
+        <v>7.919031941479983</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.74003892986371</v>
+        <v>15.21724023537834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.46841215947754</v>
+        <v>30.19774054785229</v>
       </c>
       <c r="C10">
-        <v>15.99564127383483</v>
+        <v>15.58157478719067</v>
       </c>
       <c r="D10">
-        <v>4.473979092691325</v>
+        <v>4.759198033938553</v>
       </c>
       <c r="E10">
-        <v>6.593410893623145</v>
+        <v>6.418763504607821</v>
       </c>
       <c r="F10">
-        <v>43.60299368595769</v>
+        <v>21.02945436486117</v>
       </c>
       <c r="G10">
-        <v>2.038438631086464</v>
+        <v>2.050696267229815</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.392153541037493</v>
+        <v>8.399167615180207</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.89463857262363</v>
+        <v>15.60499154674778</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.66075578387182</v>
+        <v>31.28143346280581</v>
       </c>
       <c r="C11">
-        <v>16.53725663120326</v>
+        <v>15.98470814194834</v>
       </c>
       <c r="D11">
-        <v>4.418083861221731</v>
+        <v>4.835458562796127</v>
       </c>
       <c r="E11">
-        <v>6.598899399324831</v>
+        <v>6.367414480996264</v>
       </c>
       <c r="F11">
-        <v>44.99805213479483</v>
+        <v>21.51875564358954</v>
       </c>
       <c r="G11">
-        <v>2.029302058447806</v>
+        <v>2.04591614161296</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.609962354752401</v>
+        <v>8.613787078857694</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.88756880651881</v>
+        <v>15.81100583559829</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.10586926839159</v>
+        <v>31.68349120130251</v>
       </c>
       <c r="C12">
-        <v>16.7396633755621</v>
+        <v>16.13515928015185</v>
       </c>
       <c r="D12">
-        <v>4.39744633384945</v>
+        <v>4.864109112049182</v>
       </c>
       <c r="E12">
-        <v>6.601713982651431</v>
+        <v>6.349240604922171</v>
       </c>
       <c r="F12">
-        <v>45.52710511983077</v>
+        <v>21.7072170610934</v>
       </c>
       <c r="G12">
-        <v>2.025838939075678</v>
+        <v>2.044116622562496</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.692576299535991</v>
+        <v>8.694473093230361</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.26561853363736</v>
+        <v>15.89343472089667</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.0102843370104</v>
+        <v>31.59726848192951</v>
       </c>
       <c r="C13">
-        <v>16.696188407677</v>
+        <v>16.10285570113218</v>
       </c>
       <c r="D13">
-        <v>4.401866180122592</v>
+        <v>4.857949003239838</v>
       </c>
       <c r="E13">
-        <v>6.601074098441054</v>
+        <v>6.353096523966154</v>
       </c>
       <c r="F13">
-        <v>45.41312396665944</v>
+        <v>21.66648812883568</v>
       </c>
       <c r="G13">
-        <v>2.026585035505274</v>
+        <v>2.044503731654681</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.674777459378891</v>
+        <v>8.677122490307749</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.18410319839791</v>
+        <v>15.87548349950584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.69750151521404</v>
+        <v>31.31467684204941</v>
       </c>
       <c r="C14">
-        <v>16.5539617131274</v>
+        <v>15.99713030070609</v>
       </c>
       <c r="D14">
-        <v>4.416374940730387</v>
+        <v>4.83782028665488</v>
       </c>
       <c r="E14">
-        <v>6.599115854983734</v>
+        <v>6.365893251811469</v>
       </c>
       <c r="F14">
-        <v>45.04156011904414</v>
+        <v>21.53419714829409</v>
       </c>
       <c r="G14">
-        <v>2.029017249141604</v>
+        <v>2.045767889461691</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.616756195996349</v>
+        <v>8.620437095743062</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.91862855857586</v>
+        <v>15.81769798161531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.50509128382344</v>
+        <v>31.14050261596033</v>
       </c>
       <c r="C15">
-        <v>16.46649830609021</v>
+        <v>15.93208186494502</v>
       </c>
       <c r="D15">
-        <v>4.425333201483134</v>
+        <v>4.825460887844197</v>
       </c>
       <c r="E15">
-        <v>6.598014039298364</v>
+        <v>6.373900133071346</v>
       </c>
       <c r="F15">
-        <v>44.81407755719801</v>
+        <v>21.45357696276063</v>
       </c>
       <c r="G15">
-        <v>2.030506427682231</v>
+        <v>2.046543563065042</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.581234823700898</v>
+        <v>8.585638372223112</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.7562924426927</v>
+        <v>15.78288206583785</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.38957259231477</v>
+        <v>30.12574816509112</v>
       </c>
       <c r="C16">
-        <v>15.95985988190517</v>
+        <v>15.55492258844876</v>
       </c>
       <c r="D16">
-        <v>4.477701794711041</v>
+        <v>4.754182996335386</v>
       </c>
       <c r="E16">
-        <v>6.593152001818174</v>
+        <v>6.422291677703912</v>
       </c>
       <c r="F16">
-        <v>43.51191440823104</v>
+        <v>20.99792422303132</v>
       </c>
       <c r="G16">
-        <v>2.03903561259476</v>
+        <v>2.0510102194935</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.377936719155846</v>
+        <v>8.385061695629563</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.83002121126348</v>
+        <v>15.59213787464002</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.69342427482982</v>
+        <v>29.48828190209919</v>
       </c>
       <c r="C17">
-        <v>15.64408833765828</v>
+        <v>15.31966440744952</v>
       </c>
       <c r="D17">
-        <v>4.510690279534819</v>
+        <v>4.710063372316869</v>
       </c>
       <c r="E17">
-        <v>6.591418038422146</v>
+        <v>6.454136021262277</v>
       </c>
       <c r="F17">
-        <v>42.71413823643967</v>
+        <v>20.72410385624062</v>
       </c>
       <c r="G17">
-        <v>2.044268807647107</v>
+        <v>2.0537707262546</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.253436068554086</v>
+        <v>8.261010416395639</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.26517728759414</v>
+        <v>15.48282662235846</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.28856053911431</v>
+        <v>29.1160938104411</v>
       </c>
       <c r="C18">
-        <v>15.46059303697267</v>
+        <v>15.18293938168826</v>
       </c>
       <c r="D18">
-        <v>4.529959711044502</v>
+        <v>4.684546595666894</v>
       </c>
       <c r="E18">
-        <v>6.59086175055447</v>
+        <v>6.473214426212593</v>
       </c>
       <c r="F18">
-        <v>42.25559260573093</v>
+        <v>20.56872511028515</v>
       </c>
       <c r="G18">
-        <v>2.047280986317618</v>
+        <v>2.05536640028115</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.181901871173519</v>
+        <v>8.189303757213466</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.94147971418809</v>
+        <v>15.42273395848626</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.15070456636744</v>
+        <v>28.98912293355538</v>
       </c>
       <c r="C19">
-        <v>15.39813903952169</v>
+        <v>15.13640605530095</v>
       </c>
       <c r="D19">
-        <v>4.536532867294609</v>
+        <v>4.675883359696854</v>
       </c>
       <c r="E19">
-        <v>6.590747520590321</v>
+        <v>6.479802179443377</v>
       </c>
       <c r="F19">
-        <v>42.10038533283203</v>
+        <v>20.51648163780288</v>
       </c>
       <c r="G19">
-        <v>2.048301403054349</v>
+        <v>2.05590806442166</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.157694364407902</v>
+        <v>8.164965412703081</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.83208019746892</v>
+        <v>15.4028600850595</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.76798927879656</v>
+        <v>29.55671313906756</v>
       </c>
       <c r="C20">
-        <v>15.67789548219955</v>
+        <v>15.34485444569594</v>
       </c>
       <c r="D20">
-        <v>4.507147580158276</v>
+        <v>4.71477460162301</v>
       </c>
       <c r="E20">
-        <v>6.591556584267708</v>
+        <v>6.45066656009088</v>
       </c>
       <c r="F20">
-        <v>42.79902894571948</v>
+        <v>20.75303397314445</v>
       </c>
       <c r="G20">
-        <v>2.043711540035836</v>
+        <v>2.053476056925885</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.266681526697607</v>
+        <v>8.274253015406929</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.32518198050506</v>
+        <v>15.49417405792434</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.78954392053324</v>
+        <v>31.39790541456826</v>
       </c>
       <c r="C21">
-        <v>16.59580881763303</v>
+        <v>16.02824461919836</v>
       </c>
       <c r="D21">
-        <v>4.412098373282848</v>
+        <v>4.843738845294677</v>
       </c>
       <c r="E21">
-        <v>6.599670575073717</v>
+        <v>6.362099239894454</v>
       </c>
       <c r="F21">
-        <v>45.15067362240149</v>
+        <v>21.57296846682998</v>
       </c>
       <c r="G21">
-        <v>2.028302990747935</v>
+        <v>2.045396298856305</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.633794571391284</v>
+        <v>8.63710313240786</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.996547112123</v>
+        <v>15.83454999248991</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.07364762100476</v>
+        <v>32.55283948859275</v>
       </c>
       <c r="C22">
-        <v>17.1801248304386</v>
+        <v>16.46200450331092</v>
       </c>
       <c r="D22">
-        <v>4.353105869953083</v>
+        <v>4.926693211862125</v>
       </c>
       <c r="E22">
-        <v>6.609295741270846</v>
+        <v>6.311673927425862</v>
       </c>
       <c r="F22">
-        <v>46.69235168420592</v>
+        <v>22.12732448768095</v>
       </c>
       <c r="G22">
-        <v>2.018209947931867</v>
+        <v>2.040176859088012</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.874529944300475</v>
+        <v>8.87082140945923</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.10099638822603</v>
+        <v>16.08280406872791</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.39155516308045</v>
+        <v>31.94081290418558</v>
       </c>
       <c r="C23">
-        <v>16.86963281755021</v>
+        <v>16.23168915637932</v>
       </c>
       <c r="D23">
-        <v>4.384277365838186</v>
+        <v>4.882544251819787</v>
       </c>
       <c r="E23">
-        <v>6.603742701901105</v>
+        <v>6.337870303496695</v>
       </c>
       <c r="F23">
-        <v>45.8689711158972</v>
+        <v>21.82977825202044</v>
       </c>
       <c r="G23">
-        <v>2.02360108890731</v>
+        <v>2.042957446332631</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.745960651664332</v>
+        <v>8.746405467381116</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.51032544918743</v>
+        <v>15.94789856145912</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.73429291661274</v>
+        <v>29.52579314155294</v>
       </c>
       <c r="C24">
-        <v>15.66261736958899</v>
+        <v>15.33347061040364</v>
       </c>
       <c r="D24">
-        <v>4.508748292990857</v>
+        <v>4.712645126770144</v>
       </c>
       <c r="E24">
-        <v>6.591492579551208</v>
+        <v>6.452232710233819</v>
       </c>
       <c r="F24">
-        <v>42.76064954187929</v>
+        <v>20.73994829572009</v>
       </c>
       <c r="G24">
-        <v>2.043963469238318</v>
+        <v>2.053609249974309</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.26069312245308</v>
+        <v>8.268267241560103</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.29805063785865</v>
+        <v>15.48903532296538</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.69649445312047</v>
+        <v>26.70873115463855</v>
       </c>
       <c r="C25">
-        <v>14.28872245724695</v>
+        <v>14.31098931771824</v>
       </c>
       <c r="D25">
-        <v>4.654149077323896</v>
+        <v>4.524083469846672</v>
       </c>
       <c r="E25">
-        <v>6.594960240704259</v>
+        <v>6.604419374722107</v>
       </c>
       <c r="F25">
-        <v>39.41998219076072</v>
+        <v>19.64552419598267</v>
       </c>
       <c r="G25">
-        <v>2.066028771025539</v>
+        <v>2.065405662384156</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.740224145177155</v>
+        <v>7.739173496445657</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.95707243580268</v>
+        <v>15.09956839571368</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44727161803648</v>
+        <v>24.37708739807214</v>
       </c>
       <c r="C2">
-        <v>13.51450604720748</v>
+        <v>15.06798092732569</v>
       </c>
       <c r="D2">
-        <v>4.38121908103041</v>
+        <v>4.984100131108037</v>
       </c>
       <c r="E2">
-        <v>6.738132518955204</v>
+        <v>7.033879862547915</v>
       </c>
       <c r="F2">
-        <v>18.91129915119957</v>
+        <v>15.08896440572442</v>
       </c>
       <c r="G2">
-        <v>2.074401175087282</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>17.49173519902774</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.898393041520699</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.599932540063447</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.6142325124038</v>
       </c>
       <c r="L2">
-        <v>7.340065174678968</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.347233235446729</v>
       </c>
       <c r="O2">
-        <v>14.89662837978433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.86805507646645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.79550767265759</v>
+        <v>22.78029207123122</v>
       </c>
       <c r="C3">
-        <v>12.9493085239986</v>
+        <v>14.44474500558835</v>
       </c>
       <c r="D3">
-        <v>4.282214925676478</v>
+        <v>4.764767712672032</v>
       </c>
       <c r="E3">
-        <v>6.840890657284987</v>
+        <v>7.131441803846624</v>
       </c>
       <c r="F3">
-        <v>18.45906678293123</v>
+        <v>14.81092337743005</v>
       </c>
       <c r="G3">
-        <v>2.080711648881544</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>17.16701196109494</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.723558264836827</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.670203468089305</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.92601107930252</v>
       </c>
       <c r="L3">
-        <v>7.064955223889736</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.065694922627672</v>
       </c>
       <c r="O3">
-        <v>14.80728976276794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.895254291169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.7218021037166</v>
+        <v>21.74015821496239</v>
       </c>
       <c r="C4">
-        <v>12.59053542470266</v>
+        <v>14.05140990323623</v>
       </c>
       <c r="D4">
-        <v>4.220476359617583</v>
+        <v>4.624944536936184</v>
       </c>
       <c r="E4">
-        <v>6.909569788637575</v>
+        <v>7.195169475976154</v>
       </c>
       <c r="F4">
-        <v>18.20384658050628</v>
+        <v>14.65184950090576</v>
       </c>
       <c r="G4">
-        <v>2.084698255154618</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>16.98736844958732</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.613254880708134</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.718057779760189</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.12409352055894</v>
       </c>
       <c r="L4">
-        <v>6.894297419730663</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.890489197745074</v>
       </c>
       <c r="O4">
-        <v>14.77467754517231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.92292656769867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.26918687758656</v>
+        <v>21.30108644426371</v>
       </c>
       <c r="C5">
-        <v>12.44152394528653</v>
+        <v>13.89836077594857</v>
       </c>
       <c r="D5">
-        <v>4.195099753338239</v>
+        <v>4.568373682795309</v>
       </c>
       <c r="E5">
-        <v>6.938906543718318</v>
+        <v>7.220300216033761</v>
       </c>
       <c r="F5">
-        <v>18.10547810672112</v>
+        <v>14.58236412414375</v>
       </c>
       <c r="G5">
-        <v>2.086351853714626</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>16.90527513140071</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.568238905773767</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.736653339757373</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.20261080858909</v>
       </c>
       <c r="L5">
-        <v>6.824409059750272</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.81960000114199</v>
       </c>
       <c r="O5">
-        <v>14.76673778455548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.93147060813776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.19311713083584</v>
+        <v>21.22708269176363</v>
       </c>
       <c r="C6">
-        <v>12.41661570347873</v>
+        <v>13.88476811471885</v>
       </c>
       <c r="D6">
-        <v>4.190873488724225</v>
+        <v>4.56093870419305</v>
       </c>
       <c r="E6">
-        <v>6.943857872148514</v>
+        <v>7.222359700919499</v>
       </c>
       <c r="F6">
-        <v>18.0894836473822</v>
+        <v>14.56170147942028</v>
       </c>
       <c r="G6">
-        <v>2.086628210176918</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>16.87506186329129</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.561773076224507</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.737308594285662</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.21105519692808</v>
       </c>
       <c r="L6">
-        <v>6.812786295084831</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.809014578196059</v>
       </c>
       <c r="O6">
-        <v>14.76573516241931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.92648067752807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.71575913919744</v>
+        <v>21.73380419508159</v>
       </c>
       <c r="C7">
-        <v>12.58853696956077</v>
+        <v>14.08167335154476</v>
       </c>
       <c r="D7">
-        <v>4.220134974034439</v>
+        <v>4.62966968375562</v>
       </c>
       <c r="E7">
-        <v>6.909960039816802</v>
+        <v>7.189572102047881</v>
       </c>
       <c r="F7">
-        <v>18.20249716312463</v>
+        <v>14.62564419938841</v>
       </c>
       <c r="G7">
-        <v>2.084720437521823</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>16.94040190200285</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.615119351426458</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.711470656784532</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.11228733034413</v>
       </c>
       <c r="L7">
-        <v>6.893356142909581</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.892795411781519</v>
       </c>
       <c r="O7">
-        <v>14.7745491356076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11.90510238547379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.89003148258701</v>
+        <v>23.83827429079873</v>
       </c>
       <c r="C8">
-        <v>13.32214176576335</v>
+        <v>14.89647721928656</v>
       </c>
       <c r="D8">
-        <v>4.347291756462733</v>
+        <v>4.916512683444211</v>
       </c>
       <c r="E8">
-        <v>6.772369772824584</v>
+        <v>7.058825916670767</v>
       </c>
       <c r="F8">
-        <v>18.7507115345887</v>
+        <v>14.95806622243136</v>
       </c>
       <c r="G8">
-        <v>2.076554332017355</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>17.31641556967929</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.84130092952665</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.614094019860433</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.70313344932477</v>
       </c>
       <c r="L8">
-        <v>7.245621229927942</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.254802707927238</v>
       </c>
       <c r="O8">
-        <v>14.86106636315395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.85140308523564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.68643555605206</v>
+        <v>27.49462729326642</v>
       </c>
       <c r="C9">
-        <v>14.66238955753192</v>
+        <v>16.34947523101841</v>
       </c>
       <c r="D9">
-        <v>4.588265721115647</v>
+        <v>5.427338820627455</v>
       </c>
       <c r="E9">
-        <v>6.549593981628836</v>
+        <v>6.844668881647065</v>
       </c>
       <c r="F9">
-        <v>20.00317991977383</v>
+        <v>15.74490965367006</v>
       </c>
       <c r="G9">
-        <v>2.061386812116739</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>18.29095064881375</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.259190770106985</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.47489264762696</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.97842463626301</v>
       </c>
       <c r="L9">
-        <v>7.919031941479983</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.936555257670539</v>
       </c>
       <c r="O9">
-        <v>15.21724023537834</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.87070540781715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.19774054785229</v>
+        <v>29.89708257558079</v>
       </c>
       <c r="C10">
-        <v>15.58157478719067</v>
+        <v>17.37021502329819</v>
       </c>
       <c r="D10">
-        <v>4.759198033938553</v>
+        <v>5.777479797341462</v>
       </c>
       <c r="E10">
-        <v>6.418763504607821</v>
+        <v>6.705417811084334</v>
       </c>
       <c r="F10">
-        <v>21.02945436486117</v>
+        <v>16.36468893723785</v>
       </c>
       <c r="G10">
-        <v>2.050696267229815</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>19.08158765126539</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.554488039019858</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.396385124282309</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.47521304687223</v>
       </c>
       <c r="L10">
-        <v>8.399167615180207</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.420195227759528</v>
       </c>
       <c r="O10">
-        <v>15.60499154674778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.93988517925697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.28143346280581</v>
+        <v>30.92869886254116</v>
       </c>
       <c r="C11">
-        <v>15.98470814194834</v>
+        <v>17.86405804457877</v>
       </c>
       <c r="D11">
-        <v>4.835458562796127</v>
+        <v>5.9378359754059</v>
       </c>
       <c r="E11">
-        <v>6.367414480996264</v>
+        <v>6.637097954524132</v>
       </c>
       <c r="F11">
-        <v>21.51875564358954</v>
+        <v>16.62187095136603</v>
       </c>
       <c r="G11">
-        <v>2.04591614161296</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>19.39739727495271</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.68986480569203</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.356025663839054</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.23218910840014</v>
       </c>
       <c r="L11">
-        <v>8.613787078857694</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.639549418166046</v>
       </c>
       <c r="O11">
-        <v>15.81100583559829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.95833449055875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68349120130251</v>
+        <v>31.31101015691398</v>
       </c>
       <c r="C12">
-        <v>16.13515928015185</v>
+        <v>18.02507719212669</v>
       </c>
       <c r="D12">
-        <v>4.864109112049182</v>
+        <v>5.993647029417316</v>
       </c>
       <c r="E12">
-        <v>6.349240604922171</v>
+        <v>6.617276212388942</v>
       </c>
       <c r="F12">
-        <v>21.7072170610934</v>
+        <v>16.74021155473524</v>
       </c>
       <c r="G12">
-        <v>2.044116622562496</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>19.55483177070748</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.738882627608458</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.347743374375125</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.15338131964478</v>
       </c>
       <c r="L12">
-        <v>8.694473093230361</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.71956272498025</v>
       </c>
       <c r="O12">
-        <v>15.89343472089667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.9828386478476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.59726848192951</v>
+        <v>31.22911938921996</v>
       </c>
       <c r="C13">
-        <v>16.10285570113218</v>
+        <v>17.98578347274043</v>
       </c>
       <c r="D13">
-        <v>4.857949003239838</v>
+        <v>5.980880150915845</v>
       </c>
       <c r="E13">
-        <v>6.353096523966154</v>
+        <v>6.622577934837215</v>
       </c>
       <c r="F13">
-        <v>21.66648812883568</v>
+        <v>16.71849528841034</v>
       </c>
       <c r="G13">
-        <v>2.044503731654681</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>19.52769123553155</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.727909720796506</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.350685179761031</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.17271197033099</v>
       </c>
       <c r="L13">
-        <v>8.677122490307749</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>8.701913204288546</v>
       </c>
       <c r="O13">
-        <v>15.87548349950584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.98049212780604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.31467684204941</v>
+        <v>30.96035181386145</v>
       </c>
       <c r="C14">
-        <v>15.99713030070609</v>
+        <v>17.87533585084967</v>
       </c>
       <c r="D14">
-        <v>4.83782028665488</v>
+        <v>5.942109385772678</v>
       </c>
       <c r="E14">
-        <v>6.365893251811469</v>
+        <v>6.63590446421394</v>
       </c>
       <c r="F14">
-        <v>21.53419714829409</v>
+        <v>16.63321527198411</v>
       </c>
       <c r="G14">
-        <v>2.045767889461691</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>19.41323748795582</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.693714177758654</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.355835104391262</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.22670176331398</v>
       </c>
       <c r="L14">
-        <v>8.620437095743062</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>8.64595443306602</v>
       </c>
       <c r="O14">
-        <v>15.81769798161531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.96159540983921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.14050261596033</v>
+        <v>30.79447333633986</v>
       </c>
       <c r="C15">
-        <v>15.93208186494502</v>
+        <v>17.81678433634212</v>
       </c>
       <c r="D15">
-        <v>4.825460887844197</v>
+        <v>5.919810759663926</v>
       </c>
       <c r="E15">
-        <v>6.373900133071346</v>
+        <v>6.642072645702599</v>
       </c>
       <c r="F15">
-        <v>21.45357696276063</v>
+        <v>16.57354187741439</v>
       </c>
       <c r="G15">
-        <v>2.046543563065042</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>19.32977334149379</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.673666647174232</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.356752975373976</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.25522538137862</v>
       </c>
       <c r="L15">
-        <v>8.585638372223112</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>8.612479658043</v>
       </c>
       <c r="O15">
-        <v>15.78288206583785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.94432661129641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.12574816509112</v>
+        <v>29.82737227280986</v>
       </c>
       <c r="C16">
-        <v>15.55492258844876</v>
+        <v>17.41782125085919</v>
       </c>
       <c r="D16">
-        <v>4.754182996335386</v>
+        <v>5.780301464899905</v>
       </c>
       <c r="E16">
-        <v>6.422291677703912</v>
+        <v>6.692365319480172</v>
       </c>
       <c r="F16">
-        <v>20.99792422303132</v>
+        <v>16.28288353668171</v>
       </c>
       <c r="G16">
-        <v>2.0510102194935</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>18.94386104752466</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.552540785441438</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.379179599193105</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.451719923234</v>
       </c>
       <c r="L16">
-        <v>8.385061695629563</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>8.413491537174579</v>
       </c>
       <c r="O16">
-        <v>15.59213787464002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.88818702133328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.48828190209919</v>
+        <v>29.21858947915458</v>
       </c>
       <c r="C17">
-        <v>15.31966440744952</v>
+        <v>17.1693203766962</v>
       </c>
       <c r="D17">
-        <v>4.710063372316869</v>
+        <v>5.693099450493032</v>
       </c>
       <c r="E17">
-        <v>6.454136021262277</v>
+        <v>6.724625131468782</v>
       </c>
       <c r="F17">
-        <v>20.72410385624062</v>
+        <v>16.10742254828975</v>
       </c>
       <c r="G17">
-        <v>2.0537707262546</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>18.71237706038057</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.477786813859335</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.394768730727279</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.57477749103822</v>
       </c>
       <c r="L17">
-        <v>8.261010416395639</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>8.290138777745179</v>
       </c>
       <c r="O17">
-        <v>15.48282662235846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.85794546279451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.1160938104411</v>
+        <v>28.86304852004051</v>
       </c>
       <c r="C18">
-        <v>15.18293938168826</v>
+        <v>17.0002289253086</v>
       </c>
       <c r="D18">
-        <v>4.684546595666894</v>
+        <v>5.638198355993804</v>
       </c>
       <c r="E18">
-        <v>6.473214426212593</v>
+        <v>6.748981525958044</v>
       </c>
       <c r="F18">
-        <v>20.56872511028515</v>
+        <v>16.02767445821766</v>
       </c>
       <c r="G18">
-        <v>2.05536640028115</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>18.61748987920108</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.431655207830857</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.410428781451231</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.65821112173089</v>
       </c>
       <c r="L18">
-        <v>8.189303757213466</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.21633478978457</v>
       </c>
       <c r="O18">
-        <v>15.42273395848626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.85752152903472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.98912293355538</v>
+        <v>28.74142899910239</v>
       </c>
       <c r="C19">
-        <v>15.13640605530095</v>
+        <v>16.96184417002144</v>
       </c>
       <c r="D19">
-        <v>4.675883359696854</v>
+        <v>5.622709067445187</v>
       </c>
       <c r="E19">
-        <v>6.479802179443377</v>
+        <v>6.753223367281429</v>
       </c>
       <c r="F19">
-        <v>20.51648163780288</v>
+        <v>15.9853755112884</v>
       </c>
       <c r="G19">
-        <v>2.05590806442166</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>18.55775388670278</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.418216897185745</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.411180384141456</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.67752149089935</v>
       </c>
       <c r="L19">
-        <v>8.164965412703081</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.193119313014174</v>
       </c>
       <c r="O19">
-        <v>15.4028600850595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.84571042909795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.55671313906756</v>
+        <v>29.28401237251714</v>
       </c>
       <c r="C20">
-        <v>15.34485444569594</v>
+        <v>17.19398333976605</v>
       </c>
       <c r="D20">
-        <v>4.71477460162301</v>
+        <v>5.702119901612861</v>
       </c>
       <c r="E20">
-        <v>6.45066656009088</v>
+        <v>6.721555149621633</v>
       </c>
       <c r="F20">
-        <v>20.75303397314445</v>
+        <v>16.12755706742499</v>
       </c>
       <c r="G20">
-        <v>2.053476056925885</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>18.73964233064186</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.48552574107374</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.393515520073904</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10.56251167173271</v>
       </c>
       <c r="L20">
-        <v>8.274253015406929</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.303130476848779</v>
       </c>
       <c r="O20">
-        <v>15.49417405792434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.86221890464726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.39790541456826</v>
+        <v>31.03917786431914</v>
       </c>
       <c r="C21">
-        <v>16.02824461919836</v>
+        <v>17.9343313409487</v>
       </c>
       <c r="D21">
-        <v>4.843738845294677</v>
+        <v>5.957953687289447</v>
       </c>
       <c r="E21">
-        <v>6.362099239894454</v>
+        <v>6.625989994781587</v>
       </c>
       <c r="F21">
-        <v>21.57296846682998</v>
+        <v>16.63664898189587</v>
       </c>
       <c r="G21">
-        <v>2.045396298856305</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>19.40801709941723</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.706440174636871</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.347541211432976</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.1972907000875</v>
       </c>
       <c r="L21">
-        <v>8.63710313240786</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.66495170028033</v>
       </c>
       <c r="O21">
-        <v>15.83454999248991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.95003899204595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.55283948859275</v>
+        <v>32.13628210777276</v>
       </c>
       <c r="C22">
-        <v>16.46200450331092</v>
+        <v>18.37207479143204</v>
       </c>
       <c r="D22">
-        <v>4.926693211862125</v>
+        <v>6.114181687414186</v>
       </c>
       <c r="E22">
-        <v>6.311673927425862</v>
+        <v>6.575916025195466</v>
       </c>
       <c r="F22">
-        <v>22.12732448768095</v>
+        <v>17.00576404393084</v>
       </c>
       <c r="G22">
-        <v>2.040176859088012</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>19.91079928252841</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.845884285096314</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.332323248389907</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.984460348619612</v>
       </c>
       <c r="L22">
-        <v>8.87082140945923</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.893813230187828</v>
       </c>
       <c r="O22">
-        <v>16.08280406872791</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.04322243834894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.94081290418558</v>
+        <v>31.5557519689708</v>
       </c>
       <c r="C23">
-        <v>16.23168915637932</v>
+        <v>18.10789043738229</v>
       </c>
       <c r="D23">
-        <v>4.882544251819787</v>
+        <v>6.025990485396181</v>
       </c>
       <c r="E23">
-        <v>6.337870303496695</v>
+        <v>6.609410424289916</v>
       </c>
       <c r="F23">
-        <v>21.82977825202044</v>
+        <v>16.83379810949007</v>
       </c>
       <c r="G23">
-        <v>2.042957446332631</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>19.68733727609083</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.7687341482852</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.347992449249485</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.11361048357487</v>
       </c>
       <c r="L23">
-        <v>8.746405467381116</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.769046388140813</v>
       </c>
       <c r="O23">
-        <v>15.94789856145912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.01265447944252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.52579314155294</v>
+        <v>29.25515081264421</v>
       </c>
       <c r="C24">
-        <v>15.33347061040364</v>
+        <v>17.1307824405168</v>
       </c>
       <c r="D24">
-        <v>4.712645126770144</v>
+        <v>5.68932211977396</v>
       </c>
       <c r="E24">
-        <v>6.452232710233819</v>
+        <v>6.734189854024971</v>
       </c>
       <c r="F24">
-        <v>20.73994829572009</v>
+        <v>16.16071040854876</v>
       </c>
       <c r="G24">
-        <v>2.053609249974309</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>18.80354558318923</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.476662290686285</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.406875805811733</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.59314207680229</v>
       </c>
       <c r="L24">
-        <v>8.268267241560103</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.292223747435626</v>
       </c>
       <c r="O24">
-        <v>15.48903532296538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.89295233958736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.70873115463855</v>
+        <v>26.5548466308</v>
       </c>
       <c r="C25">
-        <v>14.31098931771824</v>
+        <v>16.01982293200063</v>
       </c>
       <c r="D25">
-        <v>4.524083469846672</v>
+        <v>5.302810749242072</v>
       </c>
       <c r="E25">
-        <v>6.604419374722107</v>
+        <v>6.888196544778388</v>
       </c>
       <c r="F25">
-        <v>19.64552419598267</v>
+        <v>15.47970145035235</v>
       </c>
       <c r="G25">
-        <v>2.065405662384156</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>17.93287656342996</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.152549195094112</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.495596515855789</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.14450131533799</v>
       </c>
       <c r="L25">
-        <v>7.739173496445657</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.760295434393933</v>
       </c>
       <c r="O25">
-        <v>15.09956839571368</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.82269131904299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.37708739807214</v>
+        <v>24.3870998376229</v>
       </c>
       <c r="C2">
-        <v>15.06798092732569</v>
+        <v>15.1293206088839</v>
       </c>
       <c r="D2">
-        <v>4.984100131108037</v>
+        <v>5.025390605209715</v>
       </c>
       <c r="E2">
-        <v>7.033879862547915</v>
+        <v>6.90232402175746</v>
       </c>
       <c r="F2">
-        <v>15.08896440572442</v>
+        <v>14.923127836282</v>
       </c>
       <c r="G2">
-        <v>17.49173519902774</v>
+        <v>16.45036476905132</v>
       </c>
       <c r="I2">
-        <v>2.898393041520699</v>
+        <v>2.920971660847359</v>
       </c>
       <c r="J2">
-        <v>7.599932540063447</v>
+        <v>8.194275912865894</v>
       </c>
       <c r="K2">
-        <v>11.6142325124038</v>
+        <v>11.45474055328746</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.41035672617444</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.508769826376836</v>
       </c>
       <c r="N2">
-        <v>7.347233235446729</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.381642658980255</v>
       </c>
       <c r="Q2">
-        <v>11.86805507646645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.75318889568159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.78029207123122</v>
+        <v>22.79922006115624</v>
       </c>
       <c r="C3">
-        <v>14.44474500558835</v>
+        <v>14.41001901524004</v>
       </c>
       <c r="D3">
-        <v>4.764767712672032</v>
+        <v>4.789062741774692</v>
       </c>
       <c r="E3">
-        <v>7.131441803846624</v>
+        <v>7.002207717133619</v>
       </c>
       <c r="F3">
-        <v>14.81092337743005</v>
+        <v>14.67837371986995</v>
       </c>
       <c r="G3">
-        <v>17.16701196109494</v>
+        <v>16.16581957431756</v>
       </c>
       <c r="I3">
-        <v>2.723558264836827</v>
+        <v>2.765103933272396</v>
       </c>
       <c r="J3">
-        <v>7.670203468089305</v>
+        <v>8.234691804012344</v>
       </c>
       <c r="K3">
-        <v>11.92601107930252</v>
+        <v>11.75762189501591</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.64156158304601</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.768855399813995</v>
       </c>
       <c r="N3">
-        <v>7.065694922627672</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.095655823305018</v>
       </c>
       <c r="Q3">
-        <v>11.895254291169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.79638715620632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.74015821496239</v>
+        <v>21.7648208660095</v>
       </c>
       <c r="C4">
-        <v>14.05140990323623</v>
+        <v>13.95492932947456</v>
       </c>
       <c r="D4">
-        <v>4.624944536936184</v>
+        <v>4.638269970327678</v>
       </c>
       <c r="E4">
-        <v>7.195169475976154</v>
+        <v>7.066840141424146</v>
       </c>
       <c r="F4">
-        <v>14.65184950090576</v>
+        <v>14.53760833960145</v>
       </c>
       <c r="G4">
-        <v>16.98736844958732</v>
+        <v>16.01180748979882</v>
       </c>
       <c r="I4">
-        <v>2.613254880708134</v>
+        <v>2.666896693144563</v>
       </c>
       <c r="J4">
-        <v>7.718057779760189</v>
+        <v>8.261746962292033</v>
       </c>
       <c r="K4">
-        <v>12.12409352055894</v>
+        <v>11.94878491004691</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.78985758756125</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.950073650171959</v>
       </c>
       <c r="N4">
-        <v>6.890489197745074</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.917645516446439</v>
       </c>
       <c r="Q4">
-        <v>11.92292656769867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.83180644681629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.30108644426371</v>
+        <v>21.32816436155552</v>
       </c>
       <c r="C5">
-        <v>13.89836077594857</v>
+        <v>13.77614779650328</v>
       </c>
       <c r="D5">
-        <v>4.568373682795309</v>
+        <v>4.577075065266288</v>
       </c>
       <c r="E5">
-        <v>7.220300216033761</v>
+        <v>7.092264593553242</v>
       </c>
       <c r="F5">
-        <v>14.58236412414375</v>
+        <v>14.47519549115785</v>
       </c>
       <c r="G5">
-        <v>16.90527513140071</v>
+        <v>15.94018508889988</v>
       </c>
       <c r="I5">
-        <v>2.568238905773767</v>
+        <v>2.627188279278799</v>
       </c>
       <c r="J5">
-        <v>7.736653339757373</v>
+        <v>8.271366513979242</v>
       </c>
       <c r="K5">
-        <v>12.20261080858909</v>
+        <v>12.02429708618593</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.84790015091859</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.027724582832416</v>
       </c>
       <c r="N5">
-        <v>6.81960000114199</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.845578144143258</v>
       </c>
       <c r="Q5">
-        <v>11.93147060813776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.84313422029504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.22708269176363</v>
+        <v>21.25456599980002</v>
       </c>
       <c r="C6">
-        <v>13.88476811471885</v>
+        <v>13.75833879237084</v>
       </c>
       <c r="D6">
-        <v>4.56093870419305</v>
+        <v>4.568832344423416</v>
       </c>
       <c r="E6">
-        <v>7.222359700919499</v>
+        <v>7.094426584673297</v>
       </c>
       <c r="F6">
-        <v>14.56170147942028</v>
+        <v>14.45588072334406</v>
       </c>
       <c r="G6">
-        <v>16.87506186329129</v>
+        <v>15.9115430154958</v>
       </c>
       <c r="I6">
-        <v>2.561773076224507</v>
+        <v>2.621971037610548</v>
       </c>
       <c r="J6">
-        <v>7.737308594285662</v>
+        <v>8.27060863099504</v>
       </c>
       <c r="K6">
-        <v>12.21105519692808</v>
+        <v>12.03241719580196</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.85279076171943</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.039327570738157</v>
       </c>
       <c r="N6">
-        <v>6.809014578196059</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.834767817378121</v>
       </c>
       <c r="Q6">
-        <v>11.92648067752807</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.83874048475888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.73380419508159</v>
+        <v>21.75826781517927</v>
       </c>
       <c r="C7">
-        <v>14.08167335154476</v>
+        <v>13.98019689123413</v>
       </c>
       <c r="D7">
-        <v>4.62966968375562</v>
+        <v>4.646225965574774</v>
       </c>
       <c r="E7">
-        <v>7.189572102047881</v>
+        <v>7.061765862121108</v>
       </c>
       <c r="F7">
-        <v>14.62564419938841</v>
+        <v>14.49766511665014</v>
       </c>
       <c r="G7">
-        <v>16.94040190200285</v>
+        <v>16.05358882183824</v>
       </c>
       <c r="I7">
-        <v>2.615119351426458</v>
+        <v>2.669268743385266</v>
       </c>
       <c r="J7">
-        <v>7.711470656784532</v>
+        <v>8.221254612694821</v>
       </c>
       <c r="K7">
-        <v>12.11228733034413</v>
+        <v>11.93350907536361</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.77352685746073</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.94465927313836</v>
       </c>
       <c r="N7">
-        <v>6.892795411781519</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.919531881197819</v>
       </c>
       <c r="Q7">
-        <v>11.90510238547379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.80450346108055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.83827429079873</v>
+        <v>23.85061968055114</v>
       </c>
       <c r="C8">
-        <v>14.89647721928656</v>
+        <v>14.91019024143684</v>
       </c>
       <c r="D8">
-        <v>4.916512683444211</v>
+        <v>4.962667027347798</v>
       </c>
       <c r="E8">
-        <v>7.058825916670767</v>
+        <v>6.929725894137999</v>
       </c>
       <c r="F8">
-        <v>14.95806622243136</v>
+        <v>14.75811360835059</v>
       </c>
       <c r="G8">
-        <v>17.31641556967929</v>
+        <v>16.57894839008872</v>
       </c>
       <c r="I8">
-        <v>2.84130092952665</v>
+        <v>2.869969778923784</v>
       </c>
       <c r="J8">
-        <v>7.614094019860433</v>
+        <v>8.087548732904144</v>
       </c>
       <c r="K8">
-        <v>11.70313344932477</v>
+        <v>11.52879384040095</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.4615035109894</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.577041007964008</v>
       </c>
       <c r="N8">
-        <v>7.254802707927238</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.286524344120004</v>
       </c>
       <c r="Q8">
-        <v>11.85140308523564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.71011051313494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.49462729326642</v>
+        <v>27.48557301660097</v>
       </c>
       <c r="C9">
-        <v>16.34947523101841</v>
+        <v>16.58303683690559</v>
       </c>
       <c r="D9">
-        <v>5.427338820627455</v>
+        <v>5.51469711314108</v>
       </c>
       <c r="E9">
-        <v>6.844668881647065</v>
+        <v>6.706923835115964</v>
       </c>
       <c r="F9">
-        <v>15.74490965367006</v>
+        <v>15.44024435320907</v>
       </c>
       <c r="G9">
-        <v>18.29095064881375</v>
+        <v>17.52332651806087</v>
       </c>
       <c r="I9">
-        <v>3.259190770106985</v>
+        <v>3.241663580684177</v>
       </c>
       <c r="J9">
-        <v>7.47489264762696</v>
+        <v>7.975662067556717</v>
       </c>
       <c r="K9">
-        <v>10.97842463626301</v>
+        <v>10.81262099625299</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.935163657705999</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.060522809796942</v>
       </c>
       <c r="N9">
-        <v>7.936555257670539</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.978553644985481</v>
       </c>
       <c r="Q9">
-        <v>11.87070540781715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.66791921296451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.89708257558079</v>
+        <v>29.87162791967823</v>
       </c>
       <c r="C10">
-        <v>17.37021502329819</v>
+        <v>17.72594857308477</v>
       </c>
       <c r="D10">
-        <v>5.777479797341462</v>
+        <v>5.908593007608558</v>
       </c>
       <c r="E10">
-        <v>6.705417811084334</v>
+        <v>6.561039635352263</v>
       </c>
       <c r="F10">
-        <v>16.36468893723785</v>
+        <v>15.89981106701571</v>
       </c>
       <c r="G10">
-        <v>19.08158765126539</v>
+        <v>18.76410740590863</v>
       </c>
       <c r="I10">
-        <v>3.554488039019858</v>
+        <v>3.503301967672091</v>
       </c>
       <c r="J10">
-        <v>7.396385124282309</v>
+        <v>7.713213121924591</v>
       </c>
       <c r="K10">
-        <v>10.47521304687223</v>
+        <v>10.28297505507004</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.562037498347477</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.786820548338034</v>
       </c>
       <c r="N10">
-        <v>8.420195227759528</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.467096854689409</v>
       </c>
       <c r="Q10">
-        <v>11.93988517925697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.62371931492521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.92869886254116</v>
+        <v>30.89411828473957</v>
       </c>
       <c r="C11">
-        <v>17.86405804457877</v>
+        <v>18.23232589412159</v>
       </c>
       <c r="D11">
-        <v>5.9378359754059</v>
+        <v>6.116429521853433</v>
       </c>
       <c r="E11">
-        <v>6.637097954524132</v>
+        <v>6.494723552248952</v>
       </c>
       <c r="F11">
-        <v>16.62187095136603</v>
+        <v>15.95208224284118</v>
       </c>
       <c r="G11">
-        <v>19.39739727495271</v>
+        <v>20.09213383281579</v>
       </c>
       <c r="I11">
-        <v>3.68986480569203</v>
+        <v>3.621905047479753</v>
       </c>
       <c r="J11">
-        <v>7.356025663839054</v>
+        <v>7.288571829139159</v>
       </c>
       <c r="K11">
-        <v>10.23218910840014</v>
+        <v>9.987361177015851</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.36831836333999</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.627157720050814</v>
       </c>
       <c r="N11">
-        <v>8.639549418166046</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.685190348973464</v>
       </c>
       <c r="Q11">
-        <v>11.95833449055875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.48773130209793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.31101015691398</v>
+        <v>31.27279341862388</v>
       </c>
       <c r="C12">
-        <v>18.02507719212669</v>
+        <v>18.39316983706054</v>
       </c>
       <c r="D12">
-        <v>5.993647029417316</v>
+        <v>6.193524772952133</v>
       </c>
       <c r="E12">
-        <v>6.617276212388942</v>
+        <v>6.476067494163907</v>
       </c>
       <c r="F12">
-        <v>16.74021155473524</v>
+        <v>15.97608142551983</v>
       </c>
       <c r="G12">
-        <v>19.55483177070748</v>
+        <v>20.72841735152725</v>
       </c>
       <c r="I12">
-        <v>3.738882627608458</v>
+        <v>3.663474195444948</v>
       </c>
       <c r="J12">
-        <v>7.347743374375125</v>
+        <v>7.11106773718206</v>
       </c>
       <c r="K12">
-        <v>10.15338131964478</v>
+        <v>9.881154663705885</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.300566365328397</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.575092794739375</v>
       </c>
       <c r="N12">
-        <v>8.71956272498025</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.764349967940674</v>
       </c>
       <c r="Q12">
-        <v>11.9828386478476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.43966934446568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.22911938921996</v>
+        <v>31.19168974442917</v>
       </c>
       <c r="C13">
-        <v>17.98578347274043</v>
+        <v>18.35414823824496</v>
       </c>
       <c r="D13">
-        <v>5.980880150915845</v>
+        <v>6.176039220168971</v>
       </c>
       <c r="E13">
-        <v>6.622577934837215</v>
+        <v>6.481020294846103</v>
       </c>
       <c r="F13">
-        <v>16.71849528841034</v>
+        <v>15.97528125800371</v>
       </c>
       <c r="G13">
-        <v>19.52769123553155</v>
+        <v>20.59382348804952</v>
       </c>
       <c r="I13">
-        <v>3.727909720796506</v>
+        <v>3.653932474567455</v>
       </c>
       <c r="J13">
-        <v>7.350685179761031</v>
+        <v>7.150691310360077</v>
       </c>
       <c r="K13">
-        <v>10.17271197033099</v>
+        <v>9.90623006645386</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.316227257650638</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.588663205676695</v>
       </c>
       <c r="N13">
-        <v>8.701913204288546</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>8.746914877016986</v>
       </c>
       <c r="Q13">
-        <v>11.98049212780604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.45339508529512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.96035181386145</v>
+        <v>30.92547405724303</v>
       </c>
       <c r="C14">
-        <v>17.87533585084967</v>
+        <v>18.24369371311174</v>
       </c>
       <c r="D14">
-        <v>5.942109385772678</v>
+        <v>6.122393381649561</v>
       </c>
       <c r="E14">
-        <v>6.63590446421394</v>
+        <v>6.493583626284506</v>
       </c>
       <c r="F14">
-        <v>16.63321527198411</v>
+        <v>15.95593741795352</v>
       </c>
       <c r="G14">
-        <v>19.41323748795582</v>
+        <v>20.14542295515836</v>
       </c>
       <c r="I14">
-        <v>3.693714177758654</v>
+        <v>3.625067249704982</v>
       </c>
       <c r="J14">
-        <v>7.355835104391262</v>
+        <v>7.274634489613176</v>
       </c>
       <c r="K14">
-        <v>10.22670176331398</v>
+        <v>9.979569071348278</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.363214927468304</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.623867627865422</v>
       </c>
       <c r="N14">
-        <v>8.64595443306602</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>8.691538611180139</v>
       </c>
       <c r="Q14">
-        <v>11.96159540983921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.48522701347554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.79447333633986</v>
+        <v>30.76114321690196</v>
       </c>
       <c r="C15">
-        <v>17.81678433634212</v>
+        <v>18.18447365279944</v>
       </c>
       <c r="D15">
-        <v>5.919810759663926</v>
+        <v>6.091384103819781</v>
       </c>
       <c r="E15">
-        <v>6.642072645702599</v>
+        <v>6.499508890118983</v>
       </c>
       <c r="F15">
-        <v>16.57354187741439</v>
+        <v>15.93478421546227</v>
       </c>
       <c r="G15">
-        <v>19.32977334149379</v>
+        <v>19.87000319879453</v>
       </c>
       <c r="I15">
-        <v>3.673666647174232</v>
+        <v>3.608632519114595</v>
       </c>
       <c r="J15">
-        <v>7.356752975373976</v>
+        <v>7.346623482537734</v>
       </c>
       <c r="K15">
-        <v>10.25522538137862</v>
+        <v>10.01992102635899</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.389739612150505</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.640784367678632</v>
       </c>
       <c r="N15">
-        <v>8.612479658043</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>8.658341848306565</v>
       </c>
       <c r="Q15">
-        <v>11.94432661129641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.49757157998579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.82737227280986</v>
+        <v>29.80252877409316</v>
       </c>
       <c r="C16">
-        <v>17.41782125085919</v>
+        <v>17.77195650741458</v>
       </c>
       <c r="D16">
-        <v>5.780301464899905</v>
+        <v>5.908543795942355</v>
       </c>
       <c r="E16">
-        <v>6.692365319480172</v>
+        <v>6.548996011502507</v>
       </c>
       <c r="F16">
-        <v>16.28288353668171</v>
+        <v>15.83121521505111</v>
       </c>
       <c r="G16">
-        <v>18.94386104752466</v>
+        <v>18.57442132742326</v>
       </c>
       <c r="I16">
-        <v>3.552540785441438</v>
+        <v>3.505337376334071</v>
       </c>
       <c r="J16">
-        <v>7.379179599193105</v>
+        <v>7.720666340210156</v>
       </c>
       <c r="K16">
-        <v>10.451719923234</v>
+        <v>10.26753513872245</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.55409304165704</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.761748781485313</v>
       </c>
       <c r="N16">
-        <v>8.413491537174579</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8.460230407810885</v>
       </c>
       <c r="Q16">
-        <v>11.88818702133328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.582688856436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.21858947915458</v>
+        <v>29.19861779613289</v>
       </c>
       <c r="C17">
-        <v>17.1693203766962</v>
+        <v>17.50621166176584</v>
       </c>
       <c r="D17">
-        <v>5.693099450493032</v>
+        <v>5.800475602295691</v>
       </c>
       <c r="E17">
-        <v>6.724625131468782</v>
+        <v>6.581806722654386</v>
       </c>
       <c r="F17">
-        <v>16.10742254828975</v>
+        <v>15.74235405366793</v>
       </c>
       <c r="G17">
-        <v>18.71237706038057</v>
+        <v>17.95418696100618</v>
       </c>
       <c r="I17">
-        <v>3.477786813859335</v>
+        <v>3.440993524229325</v>
       </c>
       <c r="J17">
-        <v>7.394768730727279</v>
+        <v>7.894664159630016</v>
       </c>
       <c r="K17">
-        <v>10.57477749103822</v>
+        <v>10.41200972436869</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.653037201726205</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.833715567292689</v>
       </c>
       <c r="N17">
-        <v>8.290138777745179</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>8.336675820083874</v>
       </c>
       <c r="Q17">
-        <v>11.85794546279451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.61632474620714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.86304852004051</v>
+        <v>28.84573874766609</v>
       </c>
       <c r="C18">
-        <v>17.0002289253086</v>
+        <v>17.32388800836904</v>
       </c>
       <c r="D18">
-        <v>5.638198355993804</v>
+        <v>5.735727901934903</v>
       </c>
       <c r="E18">
-        <v>6.748981525958044</v>
+        <v>6.606486854386818</v>
       </c>
       <c r="F18">
-        <v>16.02767445821766</v>
+        <v>15.70165912042409</v>
       </c>
       <c r="G18">
-        <v>18.61748987920108</v>
+        <v>17.69682624015709</v>
       </c>
       <c r="I18">
-        <v>3.431655207830857</v>
+        <v>3.399571546033211</v>
       </c>
       <c r="J18">
-        <v>7.410428781451231</v>
+        <v>7.976716638869373</v>
       </c>
       <c r="K18">
-        <v>10.65821112173089</v>
+        <v>10.50292136313242</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.715752130405081</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.884769680844354</v>
       </c>
       <c r="N18">
-        <v>8.21633478978457</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.262550955988557</v>
       </c>
       <c r="Q18">
-        <v>11.85752152903472</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.6439469176016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.74142899910239</v>
+        <v>28.72500642086951</v>
       </c>
       <c r="C19">
-        <v>16.96184417002144</v>
+        <v>17.28046192026192</v>
       </c>
       <c r="D19">
-        <v>5.622709067445187</v>
+        <v>5.717202289837404</v>
       </c>
       <c r="E19">
-        <v>6.753223367281429</v>
+        <v>6.611131107529138</v>
       </c>
       <c r="F19">
-        <v>15.9853755112884</v>
+        <v>15.6713315503182</v>
       </c>
       <c r="G19">
-        <v>18.55775388670278</v>
+        <v>17.59268176494183</v>
       </c>
       <c r="I19">
-        <v>3.418216897185745</v>
+        <v>3.388493360433995</v>
       </c>
       <c r="J19">
-        <v>7.411180384141456</v>
+        <v>7.996240729148188</v>
       </c>
       <c r="K19">
-        <v>10.67752149089935</v>
+        <v>10.52526030976049</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.731634471873356</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.894236876022481</v>
       </c>
       <c r="N19">
-        <v>8.193119313014174</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.23913859123911</v>
       </c>
       <c r="Q19">
-        <v>11.84571042909795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.64079934969235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.28401237251714</v>
+        <v>29.26353447090713</v>
       </c>
       <c r="C20">
-        <v>17.19398333976605</v>
+        <v>17.53305227275993</v>
       </c>
       <c r="D20">
-        <v>5.702119901612861</v>
+        <v>5.811507137553342</v>
       </c>
       <c r="E20">
-        <v>6.721555149621633</v>
+        <v>6.578618689366751</v>
       </c>
       <c r="F20">
-        <v>16.12755706742499</v>
+        <v>15.75427720471476</v>
       </c>
       <c r="G20">
-        <v>18.73964233064186</v>
+        <v>18.01644110702708</v>
       </c>
       <c r="I20">
-        <v>3.48552574107374</v>
+        <v>3.447561582301226</v>
       </c>
       <c r="J20">
-        <v>7.393515520073904</v>
+        <v>7.878923834242631</v>
       </c>
       <c r="K20">
-        <v>10.56251167173271</v>
+        <v>10.39771182531686</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.643106452217671</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.826911774426037</v>
       </c>
       <c r="N20">
-        <v>8.303130476848779</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.34972083356014</v>
       </c>
       <c r="Q20">
-        <v>11.86221890464726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.61458388318906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.03917786431914</v>
+        <v>31.00300066427668</v>
       </c>
       <c r="C21">
-        <v>17.9343313409487</v>
+        <v>18.2887418302302</v>
       </c>
       <c r="D21">
-        <v>5.957953687289447</v>
+        <v>6.152654751474143</v>
       </c>
       <c r="E21">
-        <v>6.625989994781587</v>
+        <v>6.486064535889091</v>
       </c>
       <c r="F21">
-        <v>16.63664898189587</v>
+        <v>15.89394658277587</v>
       </c>
       <c r="G21">
-        <v>19.40801709941723</v>
+        <v>20.52563649860673</v>
       </c>
       <c r="I21">
-        <v>3.706440174636871</v>
+        <v>3.63612281974453</v>
       </c>
       <c r="J21">
-        <v>7.347541211432976</v>
+        <v>7.138964065807219</v>
       </c>
       <c r="K21">
-        <v>10.1972907000875</v>
+        <v>9.932599835469755</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.335541965704744</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.585073036657365</v>
       </c>
       <c r="N21">
-        <v>8.66495170028033</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.70918672768941</v>
       </c>
       <c r="Q21">
-        <v>11.95003899204595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.42398984282544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.13628210777276</v>
+        <v>32.08981389381983</v>
       </c>
       <c r="C22">
-        <v>18.37207479143204</v>
+        <v>18.73109088384913</v>
       </c>
       <c r="D22">
-        <v>6.114181687414186</v>
+        <v>6.366737201466682</v>
       </c>
       <c r="E22">
-        <v>6.575916025195466</v>
+        <v>6.438789874364795</v>
       </c>
       <c r="F22">
-        <v>17.00576404393084</v>
+        <v>16.00458258438001</v>
       </c>
       <c r="G22">
-        <v>19.91079928252841</v>
+        <v>22.30939133893211</v>
       </c>
       <c r="I22">
-        <v>3.845884285096314</v>
+        <v>3.753650287812896</v>
       </c>
       <c r="J22">
-        <v>7.332323248389907</v>
+        <v>6.710937073118513</v>
       </c>
       <c r="K22">
-        <v>9.984460348619612</v>
+        <v>9.640574770883575</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.152422411836467</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.457071123974474</v>
       </c>
       <c r="N22">
-        <v>8.893813230187828</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.935928347964708</v>
       </c>
       <c r="Q22">
-        <v>12.04322243834894</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.31529981063622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.5557519689708</v>
+        <v>31.51513319864622</v>
       </c>
       <c r="C23">
-        <v>18.10789043738229</v>
+        <v>18.47460858217098</v>
       </c>
       <c r="D23">
-        <v>6.025990485396181</v>
+        <v>6.240552135148586</v>
       </c>
       <c r="E23">
-        <v>6.609410424289916</v>
+        <v>6.468913408363083</v>
       </c>
       <c r="F23">
-        <v>16.83379810949007</v>
+        <v>16.00367069881728</v>
       </c>
       <c r="G23">
-        <v>19.68733727609083</v>
+        <v>21.19632305637397</v>
       </c>
       <c r="I23">
-        <v>3.7687341482852</v>
+        <v>3.687693696435018</v>
       </c>
       <c r="J23">
-        <v>7.347992449249485</v>
+        <v>6.996662754754114</v>
       </c>
       <c r="K23">
-        <v>10.11361048357487</v>
+        <v>9.820020519164286</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.2612911933389</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.550710304462318</v>
       </c>
       <c r="N23">
-        <v>8.769046388140813</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.813207901324986</v>
       </c>
       <c r="Q23">
-        <v>12.01265447944252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.41806340817806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.25515081264421</v>
+        <v>29.23487817944072</v>
       </c>
       <c r="C24">
-        <v>17.1307824405168</v>
+        <v>17.46887917647473</v>
       </c>
       <c r="D24">
-        <v>5.68932211977396</v>
+        <v>5.797946237923724</v>
       </c>
       <c r="E24">
-        <v>6.734189854024971</v>
+        <v>6.590635224795199</v>
       </c>
       <c r="F24">
-        <v>16.16071040854876</v>
+        <v>15.78987865912527</v>
       </c>
       <c r="G24">
-        <v>18.80354558318923</v>
+        <v>18.06383019189995</v>
       </c>
       <c r="I24">
-        <v>3.476662290686285</v>
+        <v>3.437166696555453</v>
       </c>
       <c r="J24">
-        <v>7.406875805811733</v>
+        <v>7.897139569380737</v>
       </c>
       <c r="K24">
-        <v>10.59314207680229</v>
+        <v>10.42617493897456</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.66145910607189</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.851809034987189</v>
       </c>
       <c r="N24">
-        <v>8.292223747435626</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.338911412655754</v>
       </c>
       <c r="Q24">
-        <v>11.89295233958736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.64661569842415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.5548466308</v>
+        <v>26.55177335083874</v>
       </c>
       <c r="C25">
-        <v>16.01982293200063</v>
+        <v>16.20294810287414</v>
       </c>
       <c r="D25">
-        <v>5.302810749242072</v>
+        <v>5.375068244254709</v>
       </c>
       <c r="E25">
-        <v>6.888196544778388</v>
+        <v>6.753292471137613</v>
       </c>
       <c r="F25">
-        <v>15.47970145035235</v>
+        <v>15.22551181243972</v>
       </c>
       <c r="G25">
-        <v>17.93287656342996</v>
+        <v>17.05255935492983</v>
       </c>
       <c r="I25">
-        <v>3.152549195094112</v>
+        <v>3.149458884017284</v>
       </c>
       <c r="J25">
-        <v>7.495596515855789</v>
+        <v>8.040257493053176</v>
       </c>
       <c r="K25">
-        <v>11.14450131533799</v>
+        <v>10.98605381289829</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.060203060096</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.16512380224768</v>
       </c>
       <c r="N25">
-        <v>7.760295434393933</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.799964503950013</v>
       </c>
       <c r="Q25">
-        <v>11.82269131904299</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.65389889864274</v>
       </c>
     </row>
   </sheetData>
